--- a/DailyCost/2019年5月起的消耗支出.xlsx
+++ b/DailyCost/2019年5月起的消耗支出.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>未统计</t>
   </si>
@@ -43,16 +43,25 @@
   <si>
     <t>115(车厘子)</t>
   </si>
+  <si>
+    <t>9美式咖啡</t>
+  </si>
+  <si>
+    <t>晚餐16</t>
+  </si>
+  <si>
+    <t>5.5早餐</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -72,21 +81,105 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,21 +201,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -137,75 +215,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -222,187 +231,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,11 +427,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,54 +522,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -521,145 +530,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -989,14 +998,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
+    <col min="1" max="1" width="12.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="17.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="21.2222222222222" customWidth="1"/>
     <col min="5" max="5" width="18.1111111111111" customWidth="1"/>
@@ -1119,6 +1129,19 @@
       </c>
       <c r="H12" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/DailyCost/2019年5月起的消耗支出.xlsx
+++ b/DailyCost/2019年5月起的消耗支出.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13608" windowHeight="8640"/>
+    <workbookView windowWidth="22476" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="五月" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>未统计</t>
   </si>
@@ -51,6 +51,42 @@
   </si>
   <si>
     <t>5.5早餐</t>
+  </si>
+  <si>
+    <t>午餐60.5</t>
+  </si>
+  <si>
+    <t>晚餐27.5</t>
+  </si>
+  <si>
+    <t>14咖啡</t>
+  </si>
+  <si>
+    <t>20.5午餐</t>
+  </si>
+  <si>
+    <t>248口服液</t>
+  </si>
+  <si>
+    <t>14晚餐</t>
+  </si>
+  <si>
+    <t>8 早餐</t>
+  </si>
+  <si>
+    <t>22饺子</t>
+  </si>
+  <si>
+    <t>100话费</t>
+  </si>
+  <si>
+    <t>10咖啡</t>
+  </si>
+  <si>
+    <t>充电宝12</t>
+  </si>
+  <si>
+    <t>18午餐</t>
   </si>
 </sst>
 </file>
@@ -59,9 +95,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -72,6 +108,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -79,8 +146,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -95,122 +221,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,31 +267,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,151 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,39 +458,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -469,17 +472,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,6 +506,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -522,6 +549,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -530,10 +566,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -542,133 +578,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -998,16 +1034,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="17.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="21.2222222222222" customWidth="1"/>
     <col min="5" max="5" width="18.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="10.2222222222222" customWidth="1"/>
@@ -1139,9 +1176,51 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/DailyCost/2019年5月起的消耗支出.xlsx
+++ b/DailyCost/2019年5月起的消耗支出.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22470" windowHeight="9945"/>
+    <workbookView windowWidth="22476" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="五月" sheetId="1" r:id="rId1"/>
     <sheet name="常用" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>未统计</t>
   </si>
@@ -90,14 +90,31 @@
   </si>
   <si>
     <t>10油桃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.6午餐</t>
+  </si>
+  <si>
+    <t>12咖啡</t>
+  </si>
+  <si>
+    <t>14水果</t>
+  </si>
+  <si>
+    <t>2880平板</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,13 +123,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,8 +280,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -134,9 +475,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -148,10 +731,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -413,55 +1043,55 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="12.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="17.1296296296296" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="21.25" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="18.1296296296296" customWidth="1"/>
     <col min="6" max="6" width="10.25" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="13.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -472,7 +1102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>20</v>
       </c>
@@ -480,7 +1110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>9</v>
       </c>
@@ -488,12 +1118,12 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:1">
       <c r="A9">
         <v>26.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>23.9</v>
       </c>
@@ -553,7 +1183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -561,7 +1191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -572,7 +1202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -586,7 +1216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -611,19 +1241,40 @@
         <v>24</v>
       </c>
     </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -631,7 +1282,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DailyCost/2019年5月起的消耗支出.xlsx
+++ b/DailyCost/2019年5月起的消耗支出.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22470" windowHeight="9945"/>
+    <workbookView windowWidth="22476" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="五月" sheetId="1" r:id="rId1"/>
     <sheet name="常用" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>未统计</t>
   </si>
@@ -105,14 +105,28 @@
   </si>
   <si>
     <t>25枇杷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36平板膜</t>
+  </si>
+  <si>
+    <t>11.5刮胡刀</t>
+  </si>
+  <si>
+    <t>5照片</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,13 +135,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,8 +292,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -149,9 +487,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -163,10 +743,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -428,55 +1055,55 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="12.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="17.1296296296296" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="21.25" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="18.1296296296296" customWidth="1"/>
     <col min="6" max="6" width="10.25" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="13.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -487,7 +1114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>20</v>
       </c>
@@ -495,7 +1122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>9</v>
       </c>
@@ -503,12 +1130,12 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:1">
       <c r="A9">
         <v>26.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>23.9</v>
       </c>
@@ -568,7 +1195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -576,7 +1203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -587,7 +1214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -601,7 +1228,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -634,7 +1261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -647,19 +1274,33 @@
         <v>29</v>
       </c>
     </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -667,7 +1308,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DailyCost/2019年5月起的消耗支出.xlsx
+++ b/DailyCost/2019年5月起的消耗支出.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>未统计</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>5照片</t>
+  </si>
+  <si>
+    <t>18晚餐</t>
   </si>
 </sst>
 </file>
@@ -123,8 +126,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -136,13 +139,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -150,15 +146,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,54 +205,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,15 +215,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,23 +244,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,6 +297,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -306,175 +471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,20 +493,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,6 +515,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -534,6 +535,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,6 +565,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -567,24 +588,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -593,10 +596,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,133 +608,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,10 +1064,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1283,6 +1286,19 @@
       </c>
       <c r="C21" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/DailyCost/2019年5月起的消耗支出.xlsx
+++ b/DailyCost/2019年5月起的消耗支出.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22470" windowHeight="9945"/>
+    <workbookView windowWidth="22476" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="五月" sheetId="1" r:id="rId1"/>
     <sheet name="常用" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>未统计</t>
   </si>
@@ -120,14 +120,31 @@
   </si>
   <si>
     <t>46.5驴肉火烧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5脉动</t>
+  </si>
+  <si>
+    <t>15咖啡（请同事）</t>
+  </si>
+  <si>
+    <t>45驴肉火烧</t>
+  </si>
+  <si>
+    <t>15晚餐</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,13 +153,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,8 +310,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -164,9 +505,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -178,10 +761,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -443,55 +1073,55 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="12.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="17.1296296296296" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="21.25" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="18.1296296296296" customWidth="1"/>
     <col min="6" max="6" width="10.25" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="13.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -502,7 +1132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>20</v>
       </c>
@@ -510,7 +1140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>9</v>
       </c>
@@ -518,12 +1148,12 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:1">
       <c r="A9">
         <v>26.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>23.9</v>
       </c>
@@ -583,7 +1213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -591,7 +1221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -602,7 +1232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -616,7 +1246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -633,7 +1263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -641,7 +1271,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -649,12 +1279,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -673,7 +1303,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -681,7 +1311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -689,19 +1319,36 @@
         <v>34</v>
       </c>
     </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -709,7 +1356,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DailyCost/2019年5月起的消耗支出.xlsx
+++ b/DailyCost/2019年5月起的消耗支出.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>未统计</t>
   </si>
@@ -163,6 +163,10 @@
   </si>
   <si>
     <t>12.5方便面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下楼买各种东西60元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -773,6 +777,11 @@
         <v>46</v>
       </c>
     </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DailyCost/2019年5月起的消耗支出.xlsx
+++ b/DailyCost/2019年5月起的消耗支出.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>未统计</t>
   </si>
@@ -167,6 +167,66 @@
   </si>
   <si>
     <t>下楼买各种东西60元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9酸奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5纸巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.5晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.5午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.9午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5早餐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -540,48 +600,48 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>1.5</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>23</v>
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>17.5</v>
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9">
-        <v>26.5</v>
+      <c r="A9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10">
-        <v>23.9</v>
-      </c>
-      <c r="B10">
-        <v>14</v>
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11">
-        <v>5</v>
+      <c r="A11" t="s">
+        <v>62</v>
       </c>
       <c r="B11">
         <v>40</v>
@@ -780,6 +840,25 @@
     <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/DailyCost/2019年5月起的消耗支出.xlsx
+++ b/DailyCost/2019年5月起的消耗支出.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>未统计</t>
   </si>
@@ -227,6 +227,18 @@
   </si>
   <si>
     <t>5早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6喜点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.5肉夹馍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -861,6 +873,17 @@
         <v>51</v>
       </c>
     </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DailyCost/2019年5月起的消耗支出.xlsx
+++ b/DailyCost/2019年5月起的消耗支出.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>未统计</t>
   </si>
@@ -239,6 +239,18 @@
   </si>
   <si>
     <t>27.5肉夹馍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.5咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220（牛奶，钙片，小苏打，饮料）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -884,6 +896,19 @@
         <v>65</v>
       </c>
     </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DailyCost/2019年5月起的消耗支出.xlsx
+++ b/DailyCost/2019年5月起的消耗支出.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>未统计</t>
   </si>
@@ -251,6 +251,10 @@
   </si>
   <si>
     <t>220（牛奶，钙片，小苏打，饮料）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12晚餐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -908,6 +912,9 @@
       <c r="A31" t="s">
         <v>68</v>
       </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DailyCost/2019年5月起的消耗支出.xlsx
+++ b/DailyCost/2019年5月起的消耗支出.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>未统计</t>
   </si>
@@ -86,175 +86,185 @@
     <t>充电宝12</t>
   </si>
   <si>
+    <t>10油桃</t>
+  </si>
+  <si>
+    <t>12咖啡</t>
+  </si>
+  <si>
+    <t>14水果</t>
+  </si>
+  <si>
+    <t>2880平板</t>
+  </si>
+  <si>
+    <t>25枇杷</t>
+  </si>
+  <si>
+    <t>36平板膜</t>
+  </si>
+  <si>
+    <t>11.5刮胡刀</t>
+  </si>
+  <si>
+    <t>5照片</t>
+  </si>
+  <si>
+    <t>18晚餐</t>
+  </si>
+  <si>
+    <t>46.5驴肉火烧</t>
+  </si>
+  <si>
+    <t>4.5脉动</t>
+  </si>
+  <si>
+    <t>15咖啡（请同事）</t>
+  </si>
+  <si>
+    <t>45驴肉火烧</t>
+  </si>
+  <si>
+    <t>15晚餐</t>
+  </si>
+  <si>
+    <t>46.5打车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6打车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10打车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58宽窄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27胎监带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>340检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500小群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.5方便面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下楼买各种东西60元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9酸奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5纸巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.5晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.5午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.9午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6喜点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.5肉夹馍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.5咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220（牛奶，钙片，小苏打，饮料）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>18午餐</t>
-  </si>
-  <si>
-    <t>10油桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>22.6午餐</t>
-  </si>
-  <si>
-    <t>12咖啡</t>
-  </si>
-  <si>
-    <t>14水果</t>
-  </si>
-  <si>
-    <t>2880平板</t>
-  </si>
-  <si>
-    <t>25枇杷</t>
-  </si>
-  <si>
-    <t>36平板膜</t>
-  </si>
-  <si>
-    <t>11.5刮胡刀</t>
-  </si>
-  <si>
-    <t>5照片</t>
-  </si>
-  <si>
-    <t>18晚餐</t>
-  </si>
-  <si>
-    <t>46.5驴肉火烧</t>
-  </si>
-  <si>
-    <t>4.5脉动</t>
-  </si>
-  <si>
-    <t>15咖啡（请同事）</t>
-  </si>
-  <si>
-    <t>45驴肉火烧</t>
-  </si>
-  <si>
-    <t>15晚餐</t>
-  </si>
-  <si>
-    <t>46.5打车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6打车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10打车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58宽窄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27胎监带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>340检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500小群</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.5方便面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下楼买各种东西60元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12咖啡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9酸奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10晚餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20午餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23晚餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10咖啡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5纸巾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6晚餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9咖啡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17.5晚餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26.5午餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23.9午餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14晚餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5早餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6喜点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27.5肉夹馍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14.5咖啡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12晚餐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220（牛奶，钙片，小苏打，饮料）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -602,74 +612,80 @@
     <col min="8" max="8" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
         <v>54</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
         <v>57</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
+      <c r="J10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
         <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>62</v>
       </c>
       <c r="B11">
         <v>40</v>
@@ -692,8 +708,11 @@
       <c r="H11">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="K11">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -718,16 +737,22 @@
       <c r="H12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="K12">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="K13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -737,8 +762,11 @@
       <c r="C14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="K14">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -751,8 +779,11 @@
       <c r="D15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="K15">
+        <v>296.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -768,152 +799,208 @@
       <c r="E16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="K16">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
+      <c r="K17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
+      <c r="K18">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B18" t="s">
+      <c r="K19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
+      <c r="B20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
+      <c r="K20">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
+      <c r="C21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" t="s">
+      <c r="K21">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
         <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="K22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
+      <c r="C24" t="s">
         <v>35</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
         <v>36</v>
       </c>
-      <c r="C24" t="s">
+      <c r="K24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
         <v>37</v>
       </c>
-      <c r="D24" t="s">
+      <c r="B25" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
+      <c r="C25" t="s">
         <v>39</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>40</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>41</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s">
         <v>42</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>43</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
         <v>44</v>
       </c>
-      <c r="G25" t="s">
+      <c r="K25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
         <v>45</v>
       </c>
-      <c r="H25" t="s">
+      <c r="K26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
+      <c r="B27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
+      <c r="C27" t="s">
         <v>48</v>
       </c>
-      <c r="B27" t="s">
+      <c r="K27">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
         <v>49</v>
       </c>
-      <c r="C27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="K28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
         <v>63</v>
       </c>
-      <c r="B29" t="s">
+      <c r="K29">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
         <v>64</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B30" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
+      <c r="K30">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
         <v>66</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C31" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" t="s">
-        <v>69</v>
+      <c r="K31">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6982</v>
       </c>
     </row>
   </sheetData>
